--- a/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -901,7 +901,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
